--- a/Mifos Automation Excels/Client/2360-RBI-EI-DB-SAR-REC-NOCOM-RNI-CTPD-SAR-MD-TR-2-DLR-LATE-CASH-Newcreateloan2.xlsx
+++ b/Mifos Automation Excels/Client/2360-RBI-EI-DB-SAR-REC-NOCOM-RNI-CTPD-SAR-MD-TR-2-DLR-LATE-CASH-Newcreateloan2.xlsx
@@ -224,15 +224,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="15" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -247,9 +244,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -569,26 +563,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B2" s="7">
+      <c r="B2" s="6">
         <v>42064</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="6" t="s">
         <v>32</v>
       </c>
     </row>
@@ -603,7 +597,7 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="A7" sqref="A7:XFD17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -638,81 +632,81 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="10">
+      <c r="A2" s="9">
         <v>10000</v>
       </c>
-      <c r="B2" s="12">
-        <v>834.28</v>
-      </c>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8">
-        <v>0</v>
-      </c>
-      <c r="E2" s="12">
-        <v>9165.7199999999993</v>
-      </c>
-      <c r="F2" s="11">
-        <v>832.1</v>
+      <c r="B2" s="7">
+        <v>822.33</v>
+      </c>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7">
+        <v>0</v>
+      </c>
+      <c r="E2" s="10">
+        <v>9177.67</v>
+      </c>
+      <c r="F2" s="7">
+        <v>851.5</v>
       </c>
       <c r="G2"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="8">
-        <v>398.47</v>
-      </c>
-      <c r="B3" s="12">
-        <v>17.22</v>
-      </c>
-      <c r="C3" s="8">
-        <v>0</v>
-      </c>
-      <c r="D3" s="8">
-        <v>0</v>
-      </c>
-      <c r="E3" s="12">
-        <v>381.25</v>
-      </c>
-      <c r="F3" s="12">
-        <v>19.399999999999999</v>
+      <c r="A3" s="7">
+        <v>426.77</v>
+      </c>
+      <c r="B3" s="7">
+        <v>29.17</v>
+      </c>
+      <c r="C3" s="7">
+        <v>0</v>
+      </c>
+      <c r="D3" s="7">
+        <v>0</v>
+      </c>
+      <c r="E3" s="7">
+        <v>397.6</v>
+      </c>
+      <c r="F3" s="7">
+        <v>12.5</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="8">
-        <v>0</v>
-      </c>
-      <c r="B4" s="8">
-        <v>0</v>
-      </c>
-      <c r="C4" s="8">
-        <v>0</v>
-      </c>
-      <c r="D4" s="8">
-        <v>0</v>
-      </c>
-      <c r="E4" s="8">
-        <v>0</v>
-      </c>
-      <c r="F4" s="8">
+      <c r="A4" s="7">
+        <v>0</v>
+      </c>
+      <c r="B4" s="7">
+        <v>0</v>
+      </c>
+      <c r="C4" s="7">
+        <v>0</v>
+      </c>
+      <c r="D4" s="7">
+        <v>0</v>
+      </c>
+      <c r="E4" s="7">
+        <v>0</v>
+      </c>
+      <c r="F4" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="8">
-        <v>0</v>
-      </c>
-      <c r="B5" s="8">
-        <v>0</v>
-      </c>
-      <c r="C5" s="8">
-        <v>0</v>
-      </c>
-      <c r="D5" s="8">
-        <v>0</v>
-      </c>
-      <c r="E5" s="8">
-        <v>0</v>
-      </c>
-      <c r="F5" s="8">
+      <c r="A5" s="7">
+        <v>0</v>
+      </c>
+      <c r="B5" s="7">
+        <v>0</v>
+      </c>
+      <c r="C5" s="7">
+        <v>0</v>
+      </c>
+      <c r="D5" s="7">
+        <v>0</v>
+      </c>
+      <c r="E5" s="7">
+        <v>0</v>
+      </c>
+      <c r="F5" s="7">
         <v>0</v>
       </c>
     </row>
@@ -726,7 +720,7 @@
   <dimension ref="A1:P16"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="A17" sqref="A17:XFD17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -800,663 +794,659 @@
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="8"/>
-      <c r="B2" s="8"/>
-      <c r="C2" s="9">
+      <c r="A2" s="7"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="8">
         <v>42005</v>
       </c>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="10">
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="9">
         <v>5000</v>
       </c>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8">
-        <v>0</v>
-      </c>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8">
-        <v>0</v>
-      </c>
-      <c r="L2" s="8">
-        <v>0</v>
-      </c>
-      <c r="M2" s="8"/>
-      <c r="N2" s="8"/>
-      <c r="O2" s="8"/>
-      <c r="P2" s="8"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7">
+        <v>0</v>
+      </c>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7">
+        <v>0</v>
+      </c>
+      <c r="L2" s="7">
+        <v>0</v>
+      </c>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="7"/>
+      <c r="P2" s="7"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="8">
+      <c r="A3" s="7">
         <v>1</v>
       </c>
-      <c r="B3" s="8">
+      <c r="B3" s="7">
         <v>31</v>
       </c>
-      <c r="C3" s="9">
+      <c r="C3" s="8">
         <v>42036</v>
       </c>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="12">
-        <v>834.28</v>
-      </c>
-      <c r="G3" s="11">
-        <v>3322</v>
-      </c>
-      <c r="H3" s="12">
-        <v>17.22</v>
-      </c>
-      <c r="I3" s="8">
-        <v>0</v>
-      </c>
-      <c r="J3" s="8">
-        <v>0</v>
-      </c>
-      <c r="K3" s="8">
-        <v>851.5</v>
-      </c>
-      <c r="L3" s="8">
-        <v>0</v>
-      </c>
-      <c r="M3" s="8">
-        <v>0</v>
-      </c>
-      <c r="N3" s="8">
-        <v>0</v>
-      </c>
-      <c r="O3" s="8">
-        <v>0</v>
-      </c>
-      <c r="P3" s="8">
-        <v>7.78</v>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7">
+        <v>834.83</v>
+      </c>
+      <c r="G3" s="10">
+        <v>4165.17</v>
+      </c>
+      <c r="H3" s="7">
+        <v>16.670000000000002</v>
+      </c>
+      <c r="I3" s="7">
+        <v>0</v>
+      </c>
+      <c r="J3" s="7">
+        <v>0</v>
+      </c>
+      <c r="K3" s="7">
+        <v>851.5</v>
+      </c>
+      <c r="L3" s="7">
+        <v>839</v>
+      </c>
+      <c r="M3" s="7">
+        <v>0</v>
+      </c>
+      <c r="N3" s="7">
+        <v>839</v>
+      </c>
+      <c r="O3" s="7">
+        <v>0</v>
+      </c>
+      <c r="P3" s="7">
+        <v>12.5</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="8">
+      <c r="A4" s="7">
         <v>2</v>
       </c>
-      <c r="B4" s="8">
+      <c r="B4" s="7">
         <v>14</v>
       </c>
-      <c r="C4" s="9">
+      <c r="C4" s="8">
         <v>42050</v>
       </c>
-      <c r="D4" s="9">
+      <c r="D4" s="8">
         <v>42050</v>
       </c>
-      <c r="E4" s="13"/>
-      <c r="F4" s="12">
-        <v>843.72</v>
-      </c>
-      <c r="G4" s="11">
-        <v>4156.28</v>
-      </c>
-      <c r="H4" s="12">
-        <v>7.78</v>
-      </c>
-      <c r="I4" s="8">
-        <v>0</v>
-      </c>
-      <c r="J4" s="8">
-        <v>0</v>
-      </c>
-      <c r="K4" s="8">
-        <v>851.5</v>
-      </c>
-      <c r="L4" s="12">
-        <v>851.5</v>
-      </c>
-      <c r="M4" s="8">
-        <v>0</v>
-      </c>
-      <c r="N4" s="8">
-        <v>0</v>
-      </c>
-      <c r="O4" s="8">
-        <v>0</v>
-      </c>
-      <c r="P4" s="8">
+      <c r="E4" s="11"/>
+      <c r="F4" s="7">
+        <v>0</v>
+      </c>
+      <c r="G4" s="10">
+        <v>4165.17</v>
+      </c>
+      <c r="H4" s="7">
+        <v>12.5</v>
+      </c>
+      <c r="I4" s="7">
+        <v>0</v>
+      </c>
+      <c r="J4" s="7">
+        <v>0</v>
+      </c>
+      <c r="K4" s="7">
+        <v>12.5</v>
+      </c>
+      <c r="L4" s="7">
+        <v>12.5</v>
+      </c>
+      <c r="M4" s="7">
+        <v>0</v>
+      </c>
+      <c r="N4" s="7">
+        <v>0</v>
+      </c>
+      <c r="O4" s="7">
+        <v>0</v>
+      </c>
+      <c r="P4" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="8"/>
-      <c r="B5" s="8">
+      <c r="A5" s="7"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="8">
+        <v>42064</v>
+      </c>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="9">
+        <v>5000</v>
+      </c>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7">
+        <v>0</v>
+      </c>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7">
+        <v>0</v>
+      </c>
+      <c r="L5" s="7">
+        <v>0</v>
+      </c>
+      <c r="M5" s="7"/>
+      <c r="N5" s="7"/>
+      <c r="O5" s="7"/>
+      <c r="P5" s="7"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" s="7">
+        <v>3</v>
+      </c>
+      <c r="B6" s="7">
         <v>14</v>
       </c>
-      <c r="C5" s="9">
+      <c r="C6" s="8">
         <v>42064</v>
       </c>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="10">
-        <v>5000</v>
-      </c>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8">
-        <v>0</v>
-      </c>
-      <c r="J5" s="8"/>
-      <c r="K5" s="8">
-        <v>0</v>
-      </c>
-      <c r="L5" s="8">
-        <v>0</v>
-      </c>
-      <c r="M5" s="8"/>
-      <c r="N5" s="8"/>
-      <c r="O5" s="8"/>
-      <c r="P5" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="8">
-        <v>3</v>
-      </c>
-      <c r="B6" s="8">
-        <v>28</v>
-      </c>
-      <c r="C6" s="9">
-        <v>42064</v>
-      </c>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="12">
-        <v>832.1</v>
-      </c>
-      <c r="G6" s="12">
-        <v>7489.9</v>
-      </c>
-      <c r="H6" s="12">
-        <v>19.399999999999999</v>
-      </c>
-      <c r="I6" s="8">
-        <v>0</v>
-      </c>
-      <c r="J6" s="8">
-        <v>0</v>
-      </c>
-      <c r="K6" s="8">
-        <v>851.5</v>
-      </c>
-      <c r="L6" s="8">
-        <v>0</v>
-      </c>
-      <c r="M6" s="8">
-        <v>0</v>
-      </c>
-      <c r="N6" s="8">
-        <v>0</v>
-      </c>
-      <c r="O6" s="8">
-        <v>0</v>
-      </c>
-      <c r="P6" s="8">
-        <v>855.76</v>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7">
+        <v>839</v>
+      </c>
+      <c r="G6" s="10">
+        <v>8326.17</v>
+      </c>
+      <c r="H6" s="7">
+        <v>12.5</v>
+      </c>
+      <c r="I6" s="7">
+        <v>0</v>
+      </c>
+      <c r="J6" s="7">
+        <v>0</v>
+      </c>
+      <c r="K6" s="7">
+        <v>851.5</v>
+      </c>
+      <c r="L6" s="7">
+        <v>0</v>
+      </c>
+      <c r="M6" s="7">
+        <v>0</v>
+      </c>
+      <c r="N6" s="7">
+        <v>0</v>
+      </c>
+      <c r="O6" s="7">
+        <v>0</v>
+      </c>
+      <c r="P6" s="7">
+        <v>851.5</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="8">
+      <c r="A7" s="7">
         <v>4</v>
       </c>
-      <c r="B7" s="8">
+      <c r="B7" s="7">
         <v>31</v>
       </c>
-      <c r="C7" s="9">
+      <c r="C7" s="8">
         <v>42095</v>
       </c>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="12">
-        <v>788.42</v>
-      </c>
-      <c r="G7" s="12">
-        <v>6701.47</v>
-      </c>
-      <c r="H7" s="12">
-        <v>63.08</v>
-      </c>
-      <c r="I7" s="8">
-        <v>0</v>
-      </c>
-      <c r="J7" s="8">
-        <v>0</v>
-      </c>
-      <c r="K7" s="8">
-        <v>851.5</v>
-      </c>
-      <c r="L7" s="8">
-        <v>0</v>
-      </c>
-      <c r="M7" s="8">
-        <v>0</v>
-      </c>
-      <c r="N7" s="8">
-        <v>0</v>
-      </c>
-      <c r="O7" s="8">
-        <v>0</v>
-      </c>
-      <c r="P7" s="8">
-        <v>855.76</v>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7">
+        <v>790.32</v>
+      </c>
+      <c r="G7" s="10">
+        <v>7535.85</v>
+      </c>
+      <c r="H7" s="7">
+        <v>61.18</v>
+      </c>
+      <c r="I7" s="7">
+        <v>0</v>
+      </c>
+      <c r="J7" s="7">
+        <v>0</v>
+      </c>
+      <c r="K7" s="7">
+        <v>851.5</v>
+      </c>
+      <c r="L7" s="7">
+        <v>0</v>
+      </c>
+      <c r="M7" s="7">
+        <v>0</v>
+      </c>
+      <c r="N7" s="7">
+        <v>0</v>
+      </c>
+      <c r="O7" s="7">
+        <v>0</v>
+      </c>
+      <c r="P7" s="7">
+        <v>851.5</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="8">
+      <c r="A8" s="7">
         <v>5</v>
       </c>
-      <c r="B8" s="8">
+      <c r="B8" s="7">
         <v>30</v>
       </c>
-      <c r="C8" s="9">
+      <c r="C8" s="8">
         <v>42125</v>
       </c>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="12">
-        <v>795.65</v>
-      </c>
-      <c r="G8" s="12">
-        <v>5905.82</v>
-      </c>
-      <c r="H8" s="12">
-        <v>55.85</v>
-      </c>
-      <c r="I8" s="8">
-        <v>0</v>
-      </c>
-      <c r="J8" s="8">
-        <v>0</v>
-      </c>
-      <c r="K8" s="8">
-        <v>851.5</v>
-      </c>
-      <c r="L8" s="8">
-        <v>0</v>
-      </c>
-      <c r="M8" s="8">
-        <v>0</v>
-      </c>
-      <c r="N8" s="8">
-        <v>0</v>
-      </c>
-      <c r="O8" s="8">
-        <v>0</v>
-      </c>
-      <c r="P8" s="8">
-        <v>855.76</v>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7">
+        <v>788.7</v>
+      </c>
+      <c r="G8" s="10">
+        <v>6747.15</v>
+      </c>
+      <c r="H8" s="7">
+        <v>62.8</v>
+      </c>
+      <c r="I8" s="7">
+        <v>0</v>
+      </c>
+      <c r="J8" s="7">
+        <v>0</v>
+      </c>
+      <c r="K8" s="7">
+        <v>851.5</v>
+      </c>
+      <c r="L8" s="7">
+        <v>0</v>
+      </c>
+      <c r="M8" s="7">
+        <v>0</v>
+      </c>
+      <c r="N8" s="7">
+        <v>0</v>
+      </c>
+      <c r="O8" s="7">
+        <v>0</v>
+      </c>
+      <c r="P8" s="7">
+        <v>851.5</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="8">
+      <c r="A9" s="7">
         <v>6</v>
       </c>
-      <c r="B9" s="8">
+      <c r="B9" s="7">
         <v>31</v>
       </c>
-      <c r="C9" s="9">
+      <c r="C9" s="8">
         <v>42156</v>
       </c>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="12">
-        <v>800.64</v>
-      </c>
-      <c r="G9" s="12">
-        <v>5105.17</v>
-      </c>
-      <c r="H9" s="12">
-        <v>50.86</v>
-      </c>
-      <c r="I9" s="8">
-        <v>0</v>
-      </c>
-      <c r="J9" s="8">
-        <v>0</v>
-      </c>
-      <c r="K9" s="8">
-        <v>851.5</v>
-      </c>
-      <c r="L9" s="8">
-        <v>0</v>
-      </c>
-      <c r="M9" s="8">
-        <v>0</v>
-      </c>
-      <c r="N9" s="8">
-        <v>0</v>
-      </c>
-      <c r="O9" s="8">
-        <v>0</v>
-      </c>
-      <c r="P9" s="8">
-        <v>855.76</v>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7">
+        <v>795.27</v>
+      </c>
+      <c r="G9" s="10">
+        <v>5951.88</v>
+      </c>
+      <c r="H9" s="7">
+        <v>56.23</v>
+      </c>
+      <c r="I9" s="7">
+        <v>0</v>
+      </c>
+      <c r="J9" s="7">
+        <v>0</v>
+      </c>
+      <c r="K9" s="7">
+        <v>851.5</v>
+      </c>
+      <c r="L9" s="7">
+        <v>0</v>
+      </c>
+      <c r="M9" s="7">
+        <v>0</v>
+      </c>
+      <c r="N9" s="7">
+        <v>0</v>
+      </c>
+      <c r="O9" s="7">
+        <v>0</v>
+      </c>
+      <c r="P9" s="7">
+        <v>851.5</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="8">
+      <c r="A10" s="7">
         <v>7</v>
       </c>
-      <c r="B10" s="8">
+      <c r="B10" s="7">
         <v>30</v>
       </c>
-      <c r="C10" s="9">
+      <c r="C10" s="8">
         <v>42186</v>
       </c>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="12">
-        <v>808.96</v>
-      </c>
-      <c r="G10" s="12">
-        <v>4296.22</v>
-      </c>
-      <c r="H10" s="12">
-        <v>42.54</v>
-      </c>
-      <c r="I10" s="8">
-        <v>0</v>
-      </c>
-      <c r="J10" s="8">
-        <v>0</v>
-      </c>
-      <c r="K10" s="8">
-        <v>851.5</v>
-      </c>
-      <c r="L10" s="8">
-        <v>0</v>
-      </c>
-      <c r="M10" s="8">
-        <v>0</v>
-      </c>
-      <c r="N10" s="8">
-        <v>0</v>
-      </c>
-      <c r="O10" s="8">
-        <v>0</v>
-      </c>
-      <c r="P10" s="8">
-        <v>855.76</v>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7">
+        <v>801.9</v>
+      </c>
+      <c r="G10" s="10">
+        <v>5149.9799999999996</v>
+      </c>
+      <c r="H10" s="7">
+        <v>49.6</v>
+      </c>
+      <c r="I10" s="7">
+        <v>0</v>
+      </c>
+      <c r="J10" s="7">
+        <v>0</v>
+      </c>
+      <c r="K10" s="7">
+        <v>851.5</v>
+      </c>
+      <c r="L10" s="7">
+        <v>0</v>
+      </c>
+      <c r="M10" s="7">
+        <v>0</v>
+      </c>
+      <c r="N10" s="7">
+        <v>0</v>
+      </c>
+      <c r="O10" s="7">
+        <v>0</v>
+      </c>
+      <c r="P10" s="7">
+        <v>851.5</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="8">
+      <c r="A11" s="7">
         <v>8</v>
       </c>
-      <c r="B11" s="8">
+      <c r="B11" s="7">
         <v>31</v>
       </c>
-      <c r="C11" s="9">
+      <c r="C11" s="8">
         <v>42217</v>
       </c>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="12">
-        <v>814.5</v>
-      </c>
-      <c r="G11" s="12">
-        <v>3481.71</v>
-      </c>
-      <c r="H11" s="12">
-        <v>37</v>
-      </c>
-      <c r="I11" s="8">
-        <v>0</v>
-      </c>
-      <c r="J11" s="8">
-        <v>0</v>
-      </c>
-      <c r="K11" s="8">
-        <v>851.5</v>
-      </c>
-      <c r="L11" s="8">
-        <v>0</v>
-      </c>
-      <c r="M11" s="8">
-        <v>0</v>
-      </c>
-      <c r="N11" s="8">
-        <v>0</v>
-      </c>
-      <c r="O11" s="8">
-        <v>0</v>
-      </c>
-      <c r="P11" s="8">
-        <v>855.76</v>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7">
+        <v>808.58</v>
+      </c>
+      <c r="G11" s="10">
+        <v>4341.3999999999996</v>
+      </c>
+      <c r="H11" s="7">
+        <v>42.92</v>
+      </c>
+      <c r="I11" s="7">
+        <v>0</v>
+      </c>
+      <c r="J11" s="7">
+        <v>0</v>
+      </c>
+      <c r="K11" s="7">
+        <v>851.5</v>
+      </c>
+      <c r="L11" s="7">
+        <v>0</v>
+      </c>
+      <c r="M11" s="7">
+        <v>0</v>
+      </c>
+      <c r="N11" s="7">
+        <v>0</v>
+      </c>
+      <c r="O11" s="7">
+        <v>0</v>
+      </c>
+      <c r="P11" s="7">
+        <v>851.5</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="8">
+      <c r="A12" s="7">
         <v>9</v>
       </c>
-      <c r="B12" s="8">
+      <c r="B12" s="7">
         <v>31</v>
       </c>
-      <c r="C12" s="9">
+      <c r="C12" s="8">
         <v>42248</v>
       </c>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="12">
-        <v>821.52</v>
-      </c>
-      <c r="G12" s="12">
-        <v>2660.19</v>
-      </c>
-      <c r="H12" s="12">
-        <v>29.98</v>
-      </c>
-      <c r="I12" s="8">
-        <v>0</v>
-      </c>
-      <c r="J12" s="8">
-        <v>0</v>
-      </c>
-      <c r="K12" s="8">
-        <v>851.5</v>
-      </c>
-      <c r="L12" s="8">
-        <v>0</v>
-      </c>
-      <c r="M12" s="8">
-        <v>0</v>
-      </c>
-      <c r="N12" s="8">
-        <v>0</v>
-      </c>
-      <c r="O12" s="8">
-        <v>0</v>
-      </c>
-      <c r="P12" s="8">
-        <v>855.76</v>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7">
+        <v>815.32</v>
+      </c>
+      <c r="G12" s="10">
+        <v>3526.08</v>
+      </c>
+      <c r="H12" s="7">
+        <v>36.18</v>
+      </c>
+      <c r="I12" s="7">
+        <v>0</v>
+      </c>
+      <c r="J12" s="7">
+        <v>0</v>
+      </c>
+      <c r="K12" s="7">
+        <v>851.5</v>
+      </c>
+      <c r="L12" s="7">
+        <v>0</v>
+      </c>
+      <c r="M12" s="7">
+        <v>0</v>
+      </c>
+      <c r="N12" s="7">
+        <v>0</v>
+      </c>
+      <c r="O12" s="7">
+        <v>0</v>
+      </c>
+      <c r="P12" s="7">
+        <v>851.5</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="8">
+      <c r="A13" s="7">
         <v>10</v>
       </c>
-      <c r="B13" s="8">
+      <c r="B13" s="7">
         <v>30</v>
       </c>
-      <c r="C13" s="9">
+      <c r="C13" s="8">
         <v>42278</v>
       </c>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="12">
-        <v>829.33</v>
-      </c>
-      <c r="G13" s="12">
-        <v>1830.86</v>
-      </c>
-      <c r="H13" s="12">
-        <v>22.17</v>
-      </c>
-      <c r="I13" s="8">
-        <v>0</v>
-      </c>
-      <c r="J13" s="8">
-        <v>0</v>
-      </c>
-      <c r="K13" s="8">
-        <v>851.5</v>
-      </c>
-      <c r="L13" s="8">
-        <v>0</v>
-      </c>
-      <c r="M13" s="8">
-        <v>0</v>
-      </c>
-      <c r="N13" s="8">
-        <v>0</v>
-      </c>
-      <c r="O13" s="8">
-        <v>0</v>
-      </c>
-      <c r="P13" s="8">
-        <v>855.76</v>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7">
+        <v>822.12</v>
+      </c>
+      <c r="G13" s="10">
+        <v>2703.96</v>
+      </c>
+      <c r="H13" s="7">
+        <v>29.38</v>
+      </c>
+      <c r="I13" s="7">
+        <v>0</v>
+      </c>
+      <c r="J13" s="7">
+        <v>0</v>
+      </c>
+      <c r="K13" s="7">
+        <v>851.5</v>
+      </c>
+      <c r="L13" s="7">
+        <v>0</v>
+      </c>
+      <c r="M13" s="7">
+        <v>0</v>
+      </c>
+      <c r="N13" s="7">
+        <v>0</v>
+      </c>
+      <c r="O13" s="7">
+        <v>0</v>
+      </c>
+      <c r="P13" s="7">
+        <v>851.5</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="8">
+      <c r="A14" s="7">
         <v>11</v>
       </c>
-      <c r="B14" s="8">
+      <c r="B14" s="7">
         <v>31</v>
       </c>
-      <c r="C14" s="9">
+      <c r="C14" s="8">
         <v>42309</v>
       </c>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="12">
-        <v>835.73</v>
-      </c>
-      <c r="G14" s="12">
-        <v>995.13</v>
-      </c>
-      <c r="H14" s="12">
-        <v>15.77</v>
-      </c>
-      <c r="I14" s="8">
-        <v>0</v>
-      </c>
-      <c r="J14" s="8">
-        <v>0</v>
-      </c>
-      <c r="K14" s="8">
-        <v>851.5</v>
-      </c>
-      <c r="L14" s="8">
-        <v>0</v>
-      </c>
-      <c r="M14" s="8">
-        <v>0</v>
-      </c>
-      <c r="N14" s="8">
-        <v>0</v>
-      </c>
-      <c r="O14" s="8">
-        <v>0</v>
-      </c>
-      <c r="P14" s="8">
-        <v>855.76</v>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7">
+        <v>828.97</v>
+      </c>
+      <c r="G14" s="10">
+        <v>1874.99</v>
+      </c>
+      <c r="H14" s="7">
+        <v>22.53</v>
+      </c>
+      <c r="I14" s="7">
+        <v>0</v>
+      </c>
+      <c r="J14" s="7">
+        <v>0</v>
+      </c>
+      <c r="K14" s="7">
+        <v>851.5</v>
+      </c>
+      <c r="L14" s="7">
+        <v>0</v>
+      </c>
+      <c r="M14" s="7">
+        <v>0</v>
+      </c>
+      <c r="N14" s="7">
+        <v>0</v>
+      </c>
+      <c r="O14" s="7">
+        <v>0</v>
+      </c>
+      <c r="P14" s="7">
+        <v>851.5</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="8">
+      <c r="A15" s="7">
         <v>12</v>
       </c>
-      <c r="B15" s="8">
+      <c r="B15" s="7">
         <v>30</v>
       </c>
-      <c r="C15" s="9">
+      <c r="C15" s="8">
         <v>42339</v>
       </c>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="12">
-        <v>843.21</v>
-      </c>
-      <c r="G15" s="12">
-        <v>151.91999999999999</v>
-      </c>
-      <c r="H15" s="12">
-        <v>8.2899999999999991</v>
-      </c>
-      <c r="I15" s="8">
-        <v>0</v>
-      </c>
-      <c r="J15" s="8">
-        <v>0</v>
-      </c>
-      <c r="K15" s="8">
-        <v>851.5</v>
-      </c>
-      <c r="L15" s="8">
-        <v>0</v>
-      </c>
-      <c r="M15" s="8">
-        <v>0</v>
-      </c>
-      <c r="N15" s="8">
-        <v>0</v>
-      </c>
-      <c r="O15" s="8">
-        <v>0</v>
-      </c>
-      <c r="P15" s="8">
-        <v>855.76</v>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7">
+        <v>835.88</v>
+      </c>
+      <c r="G15" s="10">
+        <v>1039.1099999999999</v>
+      </c>
+      <c r="H15" s="7">
+        <v>15.62</v>
+      </c>
+      <c r="I15" s="7">
+        <v>0</v>
+      </c>
+      <c r="J15" s="7">
+        <v>0</v>
+      </c>
+      <c r="K15" s="7">
+        <v>851.5</v>
+      </c>
+      <c r="L15" s="7">
+        <v>0</v>
+      </c>
+      <c r="M15" s="7">
+        <v>0</v>
+      </c>
+      <c r="N15" s="7">
+        <v>0</v>
+      </c>
+      <c r="O15" s="7">
+        <v>0</v>
+      </c>
+      <c r="P15" s="7">
+        <v>851.5</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="8">
+      <c r="A16" s="7">
         <v>13</v>
       </c>
-      <c r="B16" s="8">
+      <c r="B16" s="7">
         <v>31</v>
       </c>
-      <c r="C16" s="9">
+      <c r="C16" s="8">
         <v>42370</v>
       </c>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="11">
-        <v>151.91999999999999</v>
-      </c>
-      <c r="G16" s="12">
-        <v>0</v>
-      </c>
-      <c r="H16" s="12">
-        <v>1.31</v>
-      </c>
-      <c r="I16" s="8">
-        <v>0</v>
-      </c>
-      <c r="J16" s="8">
-        <v>0</v>
-      </c>
-      <c r="K16" s="11">
-        <v>153.22999999999999</v>
-      </c>
-      <c r="L16" s="8">
-        <v>0</v>
-      </c>
-      <c r="M16" s="8">
-        <v>0</v>
-      </c>
-      <c r="N16" s="8">
-        <v>0</v>
-      </c>
-      <c r="O16" s="8">
-        <v>0</v>
-      </c>
-      <c r="P16" s="11">
-        <v>153.22999999999999</v>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="10">
+        <v>1039.1099999999999</v>
+      </c>
+      <c r="G16" s="7">
+        <v>0</v>
+      </c>
+      <c r="H16" s="7">
+        <v>8.66</v>
+      </c>
+      <c r="I16" s="7">
+        <v>0</v>
+      </c>
+      <c r="J16" s="7">
+        <v>0</v>
+      </c>
+      <c r="K16" s="10">
+        <v>1047.77</v>
+      </c>
+      <c r="L16" s="7">
+        <v>0</v>
+      </c>
+      <c r="M16" s="7">
+        <v>0</v>
+      </c>
+      <c r="N16" s="7">
+        <v>0</v>
+      </c>
+      <c r="O16" s="7">
+        <v>0</v>
+      </c>
+      <c r="P16" s="10">
+        <v>1047.77</v>
       </c>
     </row>
   </sheetData>
@@ -1470,7 +1460,7 @@
   <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="A5" sqref="A2:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1521,102 +1511,106 @@
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="8">
-        <v>118</v>
-      </c>
-      <c r="B2" s="8" t="s">
+      <c r="A2" s="7">
+        <v>66</v>
+      </c>
+      <c r="B2" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="9">
+      <c r="C2" s="8">
         <v>42064</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="10">
+      <c r="E2" s="9">
         <v>5000</v>
       </c>
-      <c r="F2" s="8">
-        <v>0</v>
-      </c>
-      <c r="G2" s="8">
-        <v>0</v>
-      </c>
-      <c r="H2" s="8">
-        <v>0</v>
-      </c>
-      <c r="I2" s="8">
+      <c r="F2" s="7">
+        <v>0</v>
+      </c>
+      <c r="G2" s="7">
+        <v>0</v>
+      </c>
+      <c r="H2" s="7">
+        <v>0</v>
+      </c>
+      <c r="I2" s="7">
         <v>0</v>
       </c>
       <c r="J2" s="10">
-        <v>10000</v>
-      </c>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
+        <v>9177.67</v>
+      </c>
+      <c r="K2" s="11"/>
+      <c r="L2" s="11"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="8">
-        <v>122</v>
-      </c>
-      <c r="B3" s="8" t="s">
+      <c r="A3" s="7">
+        <v>64</v>
+      </c>
+      <c r="B3" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="9">
+      <c r="C3" s="8">
         <v>42050</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="E3" s="12">
-        <v>851.5</v>
-      </c>
-      <c r="F3" s="12">
-        <v>834.28</v>
-      </c>
-      <c r="G3" s="12">
-        <v>17.22</v>
-      </c>
-      <c r="H3" s="8">
-        <v>0</v>
-      </c>
-      <c r="I3" s="8">
-        <v>0</v>
-      </c>
-      <c r="J3" s="8">
-        <v>0</v>
-      </c>
+      <c r="E3" s="7">
+        <v>851.5</v>
+      </c>
+      <c r="F3" s="7">
+        <v>822.33</v>
+      </c>
+      <c r="G3" s="7">
+        <v>29.17</v>
+      </c>
+      <c r="H3" s="7">
+        <v>0</v>
+      </c>
+      <c r="I3" s="7">
+        <v>0</v>
+      </c>
+      <c r="J3" s="10">
+        <v>4177.67</v>
+      </c>
+      <c r="K3" s="11"/>
+      <c r="L3" s="11"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="8">
-        <v>114</v>
-      </c>
-      <c r="B4" s="8" t="s">
+      <c r="A4" s="7">
+        <v>62</v>
+      </c>
+      <c r="B4" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="9">
+      <c r="C4" s="8">
         <v>42005</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="10">
+      <c r="E4" s="9">
         <v>5000</v>
       </c>
-      <c r="F4" s="8">
-        <v>0</v>
-      </c>
-      <c r="G4" s="8">
-        <v>0</v>
-      </c>
-      <c r="H4" s="8">
-        <v>0</v>
-      </c>
-      <c r="I4" s="8">
-        <v>0</v>
-      </c>
-      <c r="J4" s="10">
+      <c r="F4" s="7">
+        <v>0</v>
+      </c>
+      <c r="G4" s="7">
+        <v>0</v>
+      </c>
+      <c r="H4" s="7">
+        <v>0</v>
+      </c>
+      <c r="I4" s="7">
+        <v>0</v>
+      </c>
+      <c r="J4" s="9">
         <v>5000</v>
       </c>
+      <c r="K4"/>
+      <c r="L4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Mifos Automation Excels/Client/2360-RBI-EI-DB-SAR-REC-NOCOM-RNI-CTPD-SAR-MD-TR-2-DLR-LATE-CASH-Newcreateloan2.xlsx
+++ b/Mifos Automation Excels/Client/2360-RBI-EI-DB-SAR-REC-NOCOM-RNI-CTPD-SAR-MD-TR-2-DLR-LATE-CASH-Newcreateloan2.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17766"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\mifosx-e2e-testing\Mifos Automation Excels\Client\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="NewLoanInput" sheetId="5" r:id="rId1"/>
@@ -124,7 +129,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -259,6 +264,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -306,7 +314,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -339,9 +347,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -374,6 +399,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -717,10 +759,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P16"/>
+  <dimension ref="A1:Q16"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17:XFD17"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R5" sqref="R5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -738,12 +780,13 @@
     <col min="11" max="11" width="8.140625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="6.5703125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="4.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.7109375" customWidth="1"/>
+    <col min="15" max="15" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -783,17 +826,18 @@
       <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="1"/>
+      <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="7"/>
       <c r="B2" s="7"/>
       <c r="C2" s="8">
@@ -820,8 +864,9 @@
       <c r="N2" s="7"/>
       <c r="O2" s="7"/>
       <c r="P2" s="7"/>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q2" s="7"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <v>1</v>
       </c>
@@ -857,17 +902,18 @@
       <c r="M3" s="7">
         <v>0</v>
       </c>
-      <c r="N3" s="7">
+      <c r="N3" s="7"/>
+      <c r="O3" s="7">
         <v>839</v>
       </c>
-      <c r="O3" s="7">
-        <v>0</v>
-      </c>
       <c r="P3" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="7">
         <v>12.5</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <v>2</v>
       </c>
@@ -905,17 +951,18 @@
       <c r="M4" s="7">
         <v>0</v>
       </c>
-      <c r="N4" s="7">
-        <v>0</v>
-      </c>
+      <c r="N4" s="7"/>
       <c r="O4" s="7">
         <v>0</v>
       </c>
       <c r="P4" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q4" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="7"/>
       <c r="B5" s="7"/>
       <c r="C5" s="8">
@@ -942,8 +989,9 @@
       <c r="N5" s="7"/>
       <c r="O5" s="7"/>
       <c r="P5" s="7"/>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q5" s="7"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <v>3</v>
       </c>
@@ -979,17 +1027,18 @@
       <c r="M6" s="7">
         <v>0</v>
       </c>
-      <c r="N6" s="7">
-        <v>0</v>
-      </c>
+      <c r="N6" s="7"/>
       <c r="O6" s="7">
         <v>0</v>
       </c>
       <c r="P6" s="7">
-        <v>851.5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="7">
+        <v>851.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <v>4</v>
       </c>
@@ -1025,17 +1074,18 @@
       <c r="M7" s="7">
         <v>0</v>
       </c>
-      <c r="N7" s="7">
-        <v>0</v>
-      </c>
+      <c r="N7" s="7"/>
       <c r="O7" s="7">
         <v>0</v>
       </c>
       <c r="P7" s="7">
-        <v>851.5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="7">
+        <v>851.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <v>5</v>
       </c>
@@ -1071,17 +1121,18 @@
       <c r="M8" s="7">
         <v>0</v>
       </c>
-      <c r="N8" s="7">
-        <v>0</v>
-      </c>
+      <c r="N8" s="7"/>
       <c r="O8" s="7">
         <v>0</v>
       </c>
       <c r="P8" s="7">
-        <v>851.5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="7">
+        <v>851.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <v>6</v>
       </c>
@@ -1117,17 +1168,18 @@
       <c r="M9" s="7">
         <v>0</v>
       </c>
-      <c r="N9" s="7">
-        <v>0</v>
-      </c>
+      <c r="N9" s="7"/>
       <c r="O9" s="7">
         <v>0</v>
       </c>
       <c r="P9" s="7">
-        <v>851.5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="7">
+        <v>851.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
         <v>7</v>
       </c>
@@ -1163,17 +1215,18 @@
       <c r="M10" s="7">
         <v>0</v>
       </c>
-      <c r="N10" s="7">
-        <v>0</v>
-      </c>
+      <c r="N10" s="7"/>
       <c r="O10" s="7">
         <v>0</v>
       </c>
       <c r="P10" s="7">
-        <v>851.5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="7">
+        <v>851.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
         <v>8</v>
       </c>
@@ -1209,17 +1262,18 @@
       <c r="M11" s="7">
         <v>0</v>
       </c>
-      <c r="N11" s="7">
-        <v>0</v>
-      </c>
+      <c r="N11" s="7"/>
       <c r="O11" s="7">
         <v>0</v>
       </c>
       <c r="P11" s="7">
-        <v>851.5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="7">
+        <v>851.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
         <v>9</v>
       </c>
@@ -1255,17 +1309,18 @@
       <c r="M12" s="7">
         <v>0</v>
       </c>
-      <c r="N12" s="7">
-        <v>0</v>
-      </c>
+      <c r="N12" s="7"/>
       <c r="O12" s="7">
         <v>0</v>
       </c>
       <c r="P12" s="7">
-        <v>851.5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="7">
+        <v>851.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
         <v>10</v>
       </c>
@@ -1301,17 +1356,18 @@
       <c r="M13" s="7">
         <v>0</v>
       </c>
-      <c r="N13" s="7">
-        <v>0</v>
-      </c>
+      <c r="N13" s="7"/>
       <c r="O13" s="7">
         <v>0</v>
       </c>
       <c r="P13" s="7">
-        <v>851.5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="7">
+        <v>851.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="7">
         <v>11</v>
       </c>
@@ -1347,17 +1403,18 @@
       <c r="M14" s="7">
         <v>0</v>
       </c>
-      <c r="N14" s="7">
-        <v>0</v>
-      </c>
+      <c r="N14" s="7"/>
       <c r="O14" s="7">
         <v>0</v>
       </c>
       <c r="P14" s="7">
-        <v>851.5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="7">
+        <v>851.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="7">
         <v>12</v>
       </c>
@@ -1393,17 +1450,18 @@
       <c r="M15" s="7">
         <v>0</v>
       </c>
-      <c r="N15" s="7">
-        <v>0</v>
-      </c>
+      <c r="N15" s="7"/>
       <c r="O15" s="7">
         <v>0</v>
       </c>
       <c r="P15" s="7">
-        <v>851.5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="7">
+        <v>851.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="7">
         <v>13</v>
       </c>
@@ -1439,13 +1497,14 @@
       <c r="M16" s="7">
         <v>0</v>
       </c>
-      <c r="N16" s="7">
-        <v>0</v>
-      </c>
+      <c r="N16" s="7"/>
       <c r="O16" s="7">
         <v>0</v>
       </c>
-      <c r="P16" s="10">
+      <c r="P16" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="10">
         <v>1047.77</v>
       </c>
     </row>
@@ -1459,7 +1518,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A5" sqref="A2:XFD5"/>
     </sheetView>
   </sheetViews>
